--- a/opengever/bundle/tests/assets/os_migration/os_test_change_refnum.xlsx
+++ b/opengever/bundle/tests/assets/os_migration/os_test_change_refnum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Work/development/opengever.core/opengever/bundle/tests/assets/os_migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core2/opengever/bundle/tests/assets/os_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C30AC5C-82FD-8A46-8BF1-F652BE9507B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D075D-C10F-6841-8A41-E1A944EB45E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="5460" windowWidth="25920" windowHeight="10340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>reference_number</t>
   </si>
@@ -1200,21 +1200,7 @@
     <cellStyle name="Neutral" xfId="19" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1618,7 +1604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3:V3"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2014,7 +2000,7 @@
         <v>67</v>
       </c>
       <c r="N7" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>26</v>
@@ -2067,7 +2053,7 @@
         <v>67</v>
       </c>
       <c r="N8" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P8" s="15" t="s">
         <v>26</v>
@@ -2108,6 +2094,21 @@
       <c r="I9" s="60"/>
       <c r="J9" s="60"/>
       <c r="K9" s="61"/>
+      <c r="L9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="15">
+        <v>5</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="15">
+        <v>30</v>
+      </c>
       <c r="S9" s="62"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
@@ -2139,6 +2140,21 @@
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
       <c r="K10" s="67"/>
+      <c r="L10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="15">
+        <v>5</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="15">
+        <v>30</v>
+      </c>
       <c r="S10" s="62"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
@@ -15425,10 +15441,10 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Eingeschränkte Berechtigung"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Leiter schreiben"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15660,15 +15676,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15863,21 +15876,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
-    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15902,9 +15915,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
+    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/opengever/bundle/tests/assets/os_migration/os_test_change_refnum.xlsx
+++ b/opengever/bundle/tests/assets/os_migration/os_test_change_refnum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core2/opengever/bundle/tests/assets/os_migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklausjohner/Work/development/opengever.core/opengever/bundle/tests/assets/os_migration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D075D-C10F-6841-8A41-E1A944EB45E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B905187-7C70-DC46-9A78-A77392D0866A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="5460" windowWidth="25920" windowHeight="10340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="11800" windowWidth="25920" windowHeight="10340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordnungssystem" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>reference_number</t>
   </si>
@@ -459,6 +459,12 @@
   </si>
   <si>
     <t>Federführung (aus OS-Tool)</t>
+  </si>
+  <si>
+    <t>faivel.fruhling</t>
+  </si>
+  <si>
+    <t>jurgen.fischer</t>
   </si>
 </sst>
 </file>
@@ -1602,9 +1608,9 @@
   <sheetPr codeName="Blatt1"/>
   <dimension ref="A1:AC512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="X7" sqref="X7:AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2018,7 +2024,9 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
+      <c r="AC7" s="15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="68" t="s">
@@ -2115,10 +2123,14 @@
       <c r="V9" s="63"/>
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
+      <c r="Y9" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
+      <c r="AB9" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
@@ -15676,12 +15688,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15876,21 +15891,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <oc_termin_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_termin_lookup xmlns="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
-    <oc_document_is_common xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-    <oc_traktandum_lookup_helper xmlns="82675a1d-2274-46ff-95b6-7e628f04e7b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
+    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15915,12 +15930,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B1394A-812F-4D99-A0FC-B41B7F31C120}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B73656-B986-42B5-A6F0-2CB7C4F8F507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="82675a1d-2274-46ff-95b6-7e628f04e7b8"/>
-    <ds:schemaRef ds:uri="96CA5592-7E49-4C69-936A-77E0F19F316B"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>